--- a/xlsx/斯洛伐克_intext.xlsx
+++ b/xlsx/斯洛伐克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="631">
   <si>
     <t>斯洛伐克</t>
   </si>
@@ -29,19 +29,19 @@
     <t>斯洛伐克国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_斯洛伐克</t>
+    <t>政策_政策_美国_斯洛伐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>斯洛伐克國徽</t>
+    <t>斯洛伐克国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%89%B9%E6%B4%9B%E5%B1%B1%E4%B8%8A%E7%94%B5%E5%85%89%E9%97%AA%E9%97%AA</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯洛伐克語</t>
+    <t>斯洛伐克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E8%AE%AE%E4%BC%9A_(%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B)</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E6%80%BB%E7%BB%9F</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>斯洛伐克總理</t>
+    <t>斯洛伐克总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%8F%B2%E4%B9%94</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>斯洛伐克國家銀行</t>
+    <t>斯洛伐克国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.sk</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
@@ -377,9 +377,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AF%AD</t>
   </si>
   <si>
-    <t>斯洛伐克语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -467,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E7%AC%AC%E4%B8%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>斯洛伐克第一共和國</t>
+    <t>斯洛伐克第一共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E8%92%82%E7%B4%A2</t>
   </si>
   <si>
-    <t>約瑟夫·蒂索</t>
+    <t>约瑟夫·蒂索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -503,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%90%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>方向黨</t>
+    <t>方向党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E6%B0%91%E6%97%8F%E9%BB%A8</t>
   </si>
   <si>
-    <t>斯洛伐克民族黨</t>
+    <t>斯洛伐克民族党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E6%94%BF%E6%B2%BB</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E7%88%BE%E5%B7%B4%E9%98%A1%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>喀爾巴阡山脈</t>
+    <t>喀尔巴阡山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%89%B9%E6%8B%89%E5%B1%B1</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>斯洛伐克行政區劃</t>
+    <t>斯洛伐克行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B8%8C%E7%AD%96</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%88%A9%E7%B4%8D</t>
   </si>
   <si>
-    <t>日利納</t>
+    <t>日利纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%89%B9%E6%8B%89</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%88%A9%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>日利納州</t>
+    <t>日利纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E6%96%AF%E5%8D%A1%C2%B7%E6%AF%94%E6%96%AF%E7%89%B9%E7%90%86%E5%AF%9F%E5%B7%9E</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E6%AC%BD%E5%B7%9E</t>
   </si>
   <si>
-    <t>特倫欽州</t>
+    <t>特伦钦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%89%B9%E6%8B%89%E5%B7%9E</t>
@@ -659,25 +656,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%88%BE%E7%B4%8D%E7%93%A6%E5%B7%9E</t>
   </si>
   <si>
-    <t>特爾納瓦州</t>
+    <t>特尔纳瓦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E8%BF%AA%E6%96%AF%E6%8B%89%E7%99%BC%E5%B7%9E</t>
   </si>
   <si>
-    <t>布拉迪斯拉發州</t>
+    <t>布拉迪斯拉发州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%88%BE%E7%B4%8D%E7%93%A6</t>
   </si>
   <si>
-    <t>特爾納瓦</t>
+    <t>特尔纳瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E6%AC%BD</t>
   </si>
   <si>
-    <t>特倫欽</t>
+    <t>特伦钦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E6%96%AF%E5%8D%A1-%E6%AF%94%E6%96%AF%E7%89%B9%E9%87%8C%E5%AF%9F</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>斯洛伐克經濟</t>
+    <t>斯洛伐克经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>自由市場經濟</t>
+    <t>自由市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%98%BE%E6%97%A5</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌受難節</t>
+    <t>耶稣受难节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E8%81%96%E6%97%A5</t>
   </si>
   <si>
-    <t>諸聖日</t>
+    <t>诸圣日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%A4%9C</t>
   </si>
   <si>
-    <t>聖誕夜</t>
+    <t>圣诞夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -839,15 +836,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -971,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -995,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1019,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1049,13 +1040,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1073,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1097,25 +1088,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1145,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1163,19 +1154,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -1193,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1247,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1271,33 +1262,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
   </si>
   <si>
@@ -1307,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -1331,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -1391,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
@@ -1421,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
@@ -1445,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>加拿大軍隊</t>
+    <t>加拿大军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
@@ -1535,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
@@ -1559,13 +1535,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -1577,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1607,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -1661,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1703,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1787,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -1871,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -1889,19 +1865,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1925,13 +1901,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4129,7 +4105,7 @@
         <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -4155,10 +4131,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4184,10 +4160,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -4213,10 +4189,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4242,10 +4218,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4271,10 +4247,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4300,10 +4276,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4329,10 +4305,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4358,10 +4334,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -4387,10 +4363,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4416,10 +4392,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4445,10 +4421,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4474,10 +4450,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4503,10 +4479,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4532,10 +4508,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>7</v>
@@ -4561,10 +4537,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4590,10 +4566,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4619,10 +4595,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4648,10 +4624,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4677,10 +4653,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4706,10 +4682,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4735,10 +4711,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4764,10 +4740,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4793,10 +4769,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4822,10 +4798,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4851,10 +4827,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4880,10 +4856,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4909,10 +4885,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -4938,10 +4914,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4967,10 +4943,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4996,10 +4972,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5054,10 +5030,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5083,10 +5059,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" t="s">
         <v>183</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5112,10 +5088,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
         <v>185</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5141,10 +5117,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5170,10 +5146,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5199,10 +5175,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5228,10 +5204,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5257,10 +5233,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -5286,10 +5262,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5315,10 +5291,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -5344,10 +5320,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5373,10 +5349,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5402,10 +5378,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5431,10 +5407,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5460,10 +5436,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5489,10 +5465,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5518,10 +5494,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5547,10 +5523,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5576,10 +5552,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5605,10 +5581,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5634,10 +5610,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5663,10 +5639,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>196</v>
+      </c>
+      <c r="F117" t="s">
         <v>197</v>
-      </c>
-      <c r="F117" t="s">
-        <v>198</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5692,10 +5668,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5721,10 +5697,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5750,10 +5726,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5779,10 +5755,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5808,10 +5784,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5837,10 +5813,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5866,10 +5842,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5895,10 +5871,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5924,10 +5900,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5953,10 +5929,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5982,10 +5958,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6011,10 +5987,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6040,10 +6016,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>126</v>
+      </c>
+      <c r="F130" t="s">
         <v>127</v>
-      </c>
-      <c r="F130" t="s">
-        <v>128</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6069,10 +6045,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" t="s">
         <v>247</v>
-      </c>
-      <c r="F131" t="s">
-        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6098,10 +6074,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
         <v>249</v>
-      </c>
-      <c r="F132" t="s">
-        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6127,10 +6103,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
         <v>251</v>
-      </c>
-      <c r="F133" t="s">
-        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6156,10 +6132,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6185,10 +6161,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>255</v>
-      </c>
-      <c r="F135" t="s">
-        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6214,10 +6190,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
         <v>257</v>
-      </c>
-      <c r="F136" t="s">
-        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6243,10 +6219,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6272,10 +6248,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6301,10 +6277,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6330,10 +6306,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F140" t="s">
         <v>265</v>
-      </c>
-      <c r="F140" t="s">
-        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6359,10 +6335,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
         <v>267</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6388,10 +6364,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
         <v>269</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6417,10 +6393,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>271</v>
-      </c>
-      <c r="F143" t="s">
-        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6446,10 +6422,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>112</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6475,10 +6451,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6504,10 +6480,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>7</v>
@@ -6533,10 +6509,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>10</v>
@@ -6562,10 +6538,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6591,10 +6567,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>5</v>
@@ -6620,10 +6596,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6649,10 +6625,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6678,10 +6654,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6707,10 +6683,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6736,10 +6712,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -6765,10 +6741,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>5</v>
@@ -6794,10 +6770,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6823,10 +6799,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6852,10 +6828,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6881,10 +6857,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -6910,10 +6886,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -6939,10 +6915,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6968,10 +6944,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>4</v>
@@ -6997,10 +6973,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7026,10 +7002,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7055,10 +7031,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7084,10 +7060,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7113,10 +7089,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7142,10 +7118,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7171,10 +7147,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>5</v>
@@ -7200,10 +7176,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7229,10 +7205,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -7258,10 +7234,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7287,10 +7263,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7316,10 +7292,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7345,10 +7321,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7374,10 +7350,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7403,10 +7379,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7432,10 +7408,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7461,10 +7437,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>4</v>
@@ -7490,10 +7466,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7519,10 +7495,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7548,10 +7524,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7577,10 +7553,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7606,10 +7582,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -7635,10 +7611,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7664,10 +7640,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -7693,10 +7669,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -7722,10 +7698,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7751,10 +7727,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7780,10 +7756,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7809,10 +7785,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7838,10 +7814,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>4</v>
@@ -7867,10 +7843,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>4</v>
@@ -7896,10 +7872,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7925,10 +7901,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7954,10 +7930,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7983,10 +7959,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8012,10 +7988,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8041,10 +8017,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8070,10 +8046,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8099,10 +8075,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8128,10 +8104,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8157,10 +8133,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8186,10 +8162,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -8215,10 +8191,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8244,10 +8220,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8273,10 +8249,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8302,10 +8278,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8331,10 +8307,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8360,10 +8336,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8389,10 +8365,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8418,10 +8394,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8447,10 +8423,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8476,10 +8452,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8505,10 +8481,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8534,10 +8510,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8563,10 +8539,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -8592,10 +8568,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>297</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8621,10 +8597,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8650,10 +8626,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8679,10 +8655,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -8708,10 +8684,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8737,10 +8713,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F223" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G223" t="n">
         <v>6</v>
@@ -8766,10 +8742,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>5</v>
@@ -8795,10 +8771,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8824,10 +8800,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8853,10 +8829,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8882,10 +8858,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8911,10 +8887,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8940,10 +8916,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8969,10 +8945,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8998,10 +8974,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F232" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -9027,10 +9003,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F233" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9056,10 +9032,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9085,10 +9061,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9114,10 +9090,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -9143,10 +9119,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9172,10 +9148,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9201,10 +9177,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9230,10 +9206,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9259,10 +9235,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9288,10 +9264,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9317,10 +9293,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9346,10 +9322,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9375,10 +9351,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9404,10 +9380,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9433,10 +9409,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9462,10 +9438,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9491,10 +9467,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9520,10 +9496,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9549,10 +9525,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9578,10 +9554,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F252" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9607,10 +9583,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9636,10 +9612,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9665,10 +9641,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9694,10 +9670,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9723,10 +9699,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9752,10 +9728,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9781,10 +9757,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9810,10 +9786,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9839,10 +9815,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9868,10 +9844,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9897,10 +9873,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9926,10 +9902,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9955,10 +9931,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9984,10 +9960,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10013,10 +9989,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10042,10 +10018,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10071,10 +10047,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10100,10 +10076,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10129,10 +10105,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10158,10 +10134,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10187,10 +10163,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10216,10 +10192,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10245,10 +10221,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10274,10 +10250,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10303,10 +10279,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10332,10 +10308,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10361,10 +10337,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10390,10 +10366,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10419,10 +10395,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10448,10 +10424,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10477,10 +10453,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10506,10 +10482,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10535,10 +10511,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10564,10 +10540,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10593,10 +10569,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F287" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10622,10 +10598,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F288" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10651,10 +10627,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10680,10 +10656,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10709,10 +10685,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10738,10 +10714,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10767,10 +10743,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10796,10 +10772,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10825,10 +10801,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10854,10 +10830,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10883,10 +10859,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10912,10 +10888,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10941,10 +10917,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10970,10 +10946,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10999,10 +10975,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11028,10 +11004,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11057,10 +11033,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11086,10 +11062,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11115,10 +11091,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11144,10 +11120,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11173,10 +11149,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11202,10 +11178,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11231,10 +11207,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11260,10 +11236,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11289,10 +11265,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11318,10 +11294,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11347,10 +11323,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11376,10 +11352,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11405,10 +11381,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11434,10 +11410,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -11463,10 +11439,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11492,10 +11468,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11521,10 +11497,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11550,10 +11526,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11579,10 +11555,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11608,10 +11584,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11637,10 +11613,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11666,10 +11642,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11695,10 +11671,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -11724,10 +11700,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11753,10 +11729,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11782,10 +11758,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11811,10 +11787,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11840,10 +11816,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>

--- a/xlsx/斯洛伐克_intext.xlsx
+++ b/xlsx/斯洛伐克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="651">
   <si>
     <t>斯洛伐克</t>
   </si>
@@ -29,7 +29,7 @@
     <t>斯洛伐克国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_斯洛伐克</t>
+    <t>体育运动_体育运动_欧洲议会_斯洛伐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B%E5%BE%BD</t>
@@ -884,10 +884,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -968,10 +992,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -980,6 +1004,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1010,10 +1040,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1106,18 +1136,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1142,10 +1172,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1196,16 +1226,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1214,10 +1250,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2280,7 +2316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I330"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6539,7 +6575,7 @@
         <v>280</v>
       </c>
       <c r="G147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6684,7 +6720,7 @@
         <v>290</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6713,7 +6749,7 @@
         <v>292</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6742,7 +6778,7 @@
         <v>294</v>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6771,7 +6807,7 @@
         <v>296</v>
       </c>
       <c r="G155" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6800,7 +6836,7 @@
         <v>298</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6858,7 +6894,7 @@
         <v>302</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6887,7 +6923,7 @@
         <v>304</v>
       </c>
       <c r="G159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6916,7 +6952,7 @@
         <v>306</v>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6974,7 +7010,7 @@
         <v>310</v>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7003,7 +7039,7 @@
         <v>312</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7032,7 +7068,7 @@
         <v>314</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7061,7 +7097,7 @@
         <v>316</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7090,7 +7126,7 @@
         <v>318</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7177,7 +7213,7 @@
         <v>324</v>
       </c>
       <c r="G169" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7206,7 +7242,7 @@
         <v>326</v>
       </c>
       <c r="G170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7235,7 +7271,7 @@
         <v>328</v>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7264,7 +7300,7 @@
         <v>330</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7322,7 +7358,7 @@
         <v>334</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7351,7 +7387,7 @@
         <v>336</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7380,7 +7416,7 @@
         <v>338</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7409,7 +7445,7 @@
         <v>340</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7467,7 +7503,7 @@
         <v>344</v>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7554,7 +7590,7 @@
         <v>350</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7583,7 +7619,7 @@
         <v>352</v>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7641,7 +7677,7 @@
         <v>356</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7670,7 +7706,7 @@
         <v>358</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7699,7 +7735,7 @@
         <v>360</v>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7757,7 +7793,7 @@
         <v>364</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7786,7 +7822,7 @@
         <v>366</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7815,7 +7851,7 @@
         <v>368</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7873,7 +7909,7 @@
         <v>372</v>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7902,7 +7938,7 @@
         <v>374</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7989,7 +8025,7 @@
         <v>380</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8018,7 +8054,7 @@
         <v>382</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8047,7 +8083,7 @@
         <v>384</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8192,7 +8228,7 @@
         <v>394</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8366,7 +8402,7 @@
         <v>406</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8511,7 +8547,7 @@
         <v>416</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8540,7 +8576,7 @@
         <v>418</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8569,7 +8605,7 @@
         <v>420</v>
       </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8598,7 +8634,7 @@
         <v>422</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8627,7 +8663,7 @@
         <v>424</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -8656,7 +8692,7 @@
         <v>426</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8685,7 +8721,7 @@
         <v>428</v>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8737,13 +8773,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>287</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>288</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8766,13 +8802,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8795,10 +8831,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8824,10 +8860,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8853,13 +8889,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -8882,13 +8918,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8911,13 +8947,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>287</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -8946,7 +8982,7 @@
         <v>444</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8975,7 +9011,7 @@
         <v>446</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8998,13 +9034,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9027,13 +9063,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9056,13 +9092,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9085,13 +9121,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9114,13 +9150,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9143,10 +9179,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9172,13 +9208,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>352</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9201,13 +9237,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>350</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9236,7 +9272,7 @@
         <v>460</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9294,7 +9330,7 @@
         <v>464</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9410,7 +9446,7 @@
         <v>472</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9468,7 +9504,7 @@
         <v>476</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9584,7 +9620,7 @@
         <v>484</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9642,7 +9678,7 @@
         <v>488</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9758,7 +9794,7 @@
         <v>496</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -9932,7 +9968,7 @@
         <v>508</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10019,7 +10055,7 @@
         <v>514</v>
       </c>
       <c r="G267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10193,7 +10229,7 @@
         <v>526</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10483,7 +10519,7 @@
         <v>546</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -10622,10 +10658,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>351</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>352</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10651,13 +10687,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10680,10 +10716,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10709,10 +10745,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10738,10 +10774,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10767,10 +10803,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10796,10 +10832,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>361</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>362</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11440,7 +11476,7 @@
         <v>610</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -11614,7 +11650,7 @@
         <v>622</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -11701,7 +11737,7 @@
         <v>628</v>
       </c>
       <c r="G325" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -11852,6 +11888,180 @@
         <v>4</v>
       </c>
       <c r="I330" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>330</v>
+      </c>
+      <c r="E331" t="s">
+        <v>639</v>
+      </c>
+      <c r="F331" t="s">
+        <v>640</v>
+      </c>
+      <c r="G331" t="n">
+        <v>3</v>
+      </c>
+      <c r="H331" t="s">
+        <v>4</v>
+      </c>
+      <c r="I331" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>331</v>
+      </c>
+      <c r="E332" t="s">
+        <v>641</v>
+      </c>
+      <c r="F332" t="s">
+        <v>642</v>
+      </c>
+      <c r="G332" t="n">
+        <v>1</v>
+      </c>
+      <c r="H332" t="s">
+        <v>4</v>
+      </c>
+      <c r="I332" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>332</v>
+      </c>
+      <c r="E333" t="s">
+        <v>643</v>
+      </c>
+      <c r="F333" t="s">
+        <v>644</v>
+      </c>
+      <c r="G333" t="n">
+        <v>1</v>
+      </c>
+      <c r="H333" t="s">
+        <v>4</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>333</v>
+      </c>
+      <c r="E334" t="s">
+        <v>645</v>
+      </c>
+      <c r="F334" t="s">
+        <v>646</v>
+      </c>
+      <c r="G334" t="n">
+        <v>1</v>
+      </c>
+      <c r="H334" t="s">
+        <v>4</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>334</v>
+      </c>
+      <c r="E335" t="s">
+        <v>647</v>
+      </c>
+      <c r="F335" t="s">
+        <v>648</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1</v>
+      </c>
+      <c r="H335" t="s">
+        <v>4</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>335</v>
+      </c>
+      <c r="E336" t="s">
+        <v>649</v>
+      </c>
+      <c r="F336" t="s">
+        <v>650</v>
+      </c>
+      <c r="G336" t="n">
+        <v>1</v>
+      </c>
+      <c r="H336" t="s">
+        <v>4</v>
+      </c>
+      <c r="I336" t="n">
         <v>3</v>
       </c>
     </row>
